--- a/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
+++ b/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF81286-77B5-4AB7-AF95-938AE6D8F644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017AC97-C796-43DB-8CB8-DA389F53EEE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -16,9 +16,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -211,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -323,19 +321,93 @@
     <t>Formal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>补充说明</t>
+  </si>
+  <si>
+    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>如：Paint,0.1,25和M BS</t>
+  </si>
+  <si>
+    <t>2.C列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>如：M BS中的Pb元素的数值</t>
+  </si>
+  <si>
+    <t>3.B列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
+  </si>
+  <si>
+    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
+  </si>
+  <si>
+    <t>如：Paint,0.1,25或者Plastic，0.1，结果会根据有无稀释，而有不同的算法，溶度*定容体积*稀释倍数/质量</t>
+  </si>
+  <si>
+    <t>添加质控说明和例子</t>
+  </si>
+  <si>
+    <t>1.判断添加项目的类型</t>
+  </si>
+  <si>
+    <t>每天多次，每天一次，某天一次</t>
+  </si>
+  <si>
+    <t>2.每天多次</t>
+  </si>
+  <si>
+    <t>如:添加CC中的Cr，直接在CC区域中添加一行，数值在Excel引用即可</t>
+  </si>
+  <si>
+    <t>3.每天一次</t>
+  </si>
+  <si>
+    <t>如:添加BLK中的Pb元素，直接在每天一次区域添加一行，这时由于BLK与M BS类型一致，Date行业可以改为BLK</t>
+  </si>
+  <si>
+    <t>4.某天一次</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,7 +440,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -443,7 +515,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -705,13 +777,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,12 +792,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -742,8 +808,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,6 +820,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -791,6 +864,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -883,10 +965,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4443699999999999</c:v>
+                  <c:v>1.3755904761904761E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4443699999999999</c:v>
+                  <c:v>1.3755904761904761E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -925,10 +1007,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4949847033973329</c:v>
+                  <c:v>0.43562580977244492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4949847033973329</c:v>
+                  <c:v>0.43562580977244492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,10 +1051,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.4106268644017779</c:v>
+                  <c:v>-0.26749069857845537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4106268644017779</c:v>
+                  <c:v>-0.26749069857845537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1013,10 +1095,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.478113135598222</c:v>
+                  <c:v>0.29500250810226486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.478113135598222</c:v>
+                  <c:v>0.29500250810226486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,10 +1137,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.3937552966026669</c:v>
+                  <c:v>-0.40811400024863542</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3937552966026669</c:v>
+                  <c:v>-0.40811400024863542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1852,793 +1934,793 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>#N/A</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,7 +3076,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>495300</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -3365,57 +3447,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7CE55A-FDC8-4D55-AD53-F7FE43BB9557}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="20"/>
-    <col min="2" max="2" width="11.796875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="15.9296875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.06640625" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9.06640625" style="20"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="11.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="12" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" s="19" customFormat="1" ht="15.75">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="19" customFormat="1" ht="15.75">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+    <row r="3" spans="1:16" s="19" customFormat="1" ht="15.75">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D3" s="18">
         <v>1.35</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E3" s="18">
         <v>1.65</v>
       </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="B7" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="B12" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="B13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:P17"/>
+    <mergeCell ref="B13:P13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:P14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:P15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:P16"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:P10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:P11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:P12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:P7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:P9"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3426,1942 +3777,3533 @@
   <dimension ref="A1:JM44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J4" sqref="J4"/>
+      <pane xSplit="1" topLeftCell="IV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" customWidth="1"/>
-    <col min="49" max="49" width="9.265625" customWidth="1"/>
-    <col min="51" max="54" width="9.1328125" customWidth="1"/>
-    <col min="67" max="67" width="9.1328125" customWidth="1"/>
-    <col min="72" max="73" width="9.1328125" customWidth="1"/>
-    <col min="80" max="80" width="9.1328125" customWidth="1"/>
-    <col min="90" max="95" width="9.1328125" customWidth="1"/>
-    <col min="109" max="109" width="9.1328125" customWidth="1"/>
-    <col min="124" max="124" width="9.1328125" customWidth="1"/>
-    <col min="166" max="166" width="9.1328125" customWidth="1"/>
-    <col min="169" max="169" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="9.140625" customWidth="1"/>
+    <col min="55" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" customWidth="1"/>
+    <col min="68" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="9.140625" customWidth="1"/>
+    <col min="74" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.140625" customWidth="1"/>
+    <col min="81" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="9.140625" customWidth="1"/>
+    <col min="96" max="108" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.140625" customWidth="1"/>
+    <col min="110" max="123" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.140625" customWidth="1"/>
+    <col min="125" max="165" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.140625" customWidth="1"/>
+    <col min="167" max="273" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" s="29" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:273" s="30" customFormat="1" ht="120" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:273" s="17" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:273" s="15" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:273" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:273" s="24" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
-      <c r="AT3" s="18"/>
-      <c r="AU3" s="18"/>
-      <c r="AV3" s="18"/>
-      <c r="AW3" s="18"/>
-      <c r="AX3" s="18"/>
-      <c r="AY3" s="18"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="18"/>
-      <c r="BK3" s="18"/>
-      <c r="BL3" s="18"/>
-      <c r="BM3" s="18"/>
-      <c r="BN3" s="18"/>
-      <c r="BO3" s="18"/>
-      <c r="BP3" s="18"/>
-      <c r="BQ3" s="18"/>
-      <c r="BR3" s="18"/>
-      <c r="BS3" s="18"/>
-      <c r="BT3" s="18"/>
-      <c r="BU3" s="18"/>
-      <c r="BV3" s="18"/>
-      <c r="BW3" s="18"/>
-      <c r="BX3" s="18"/>
-      <c r="BY3" s="18"/>
-      <c r="BZ3" s="18"/>
-      <c r="CA3" s="18"/>
-      <c r="CB3" s="18"/>
-      <c r="CC3" s="18"/>
-      <c r="CD3" s="18"/>
-      <c r="CE3" s="18"/>
-      <c r="CF3" s="18"/>
-      <c r="CG3" s="18"/>
-      <c r="CH3" s="18"/>
-      <c r="CI3" s="18"/>
-      <c r="CJ3" s="18"/>
-      <c r="CK3" s="18"/>
-      <c r="CL3" s="18"/>
-      <c r="CM3" s="18"/>
-      <c r="CN3" s="18"/>
-      <c r="CO3" s="18"/>
-      <c r="CP3" s="18"/>
-      <c r="CQ3" s="18"/>
-      <c r="CR3" s="18"/>
-      <c r="CS3" s="18"/>
-      <c r="CT3" s="18"/>
-      <c r="CU3" s="18"/>
-      <c r="CV3" s="18"/>
-      <c r="CW3" s="18"/>
-      <c r="CX3" s="18"/>
-      <c r="CY3" s="18"/>
-      <c r="CZ3" s="18"/>
-      <c r="DA3" s="18"/>
-      <c r="DB3" s="18"/>
-      <c r="DC3" s="18"/>
-      <c r="DD3" s="18"/>
-      <c r="DE3" s="18"/>
-      <c r="DF3" s="18"/>
-      <c r="DG3" s="18"/>
-      <c r="DH3" s="18"/>
-      <c r="DI3" s="18"/>
-      <c r="DJ3" s="18"/>
-      <c r="DK3" s="18"/>
-      <c r="DL3" s="18"/>
-      <c r="DM3" s="18"/>
-      <c r="DN3" s="18"/>
-      <c r="DO3" s="18"/>
-      <c r="DP3" s="18"/>
-      <c r="DQ3" s="18"/>
-      <c r="DR3" s="18"/>
-      <c r="DS3" s="18"/>
-      <c r="DT3" s="18"/>
-      <c r="DU3" s="18"/>
-      <c r="DV3" s="18"/>
-      <c r="DW3" s="18"/>
-      <c r="DX3" s="18"/>
-      <c r="DY3" s="18"/>
-      <c r="DZ3" s="18"/>
-      <c r="EA3" s="18"/>
-      <c r="EB3" s="18"/>
-      <c r="EC3" s="18"/>
-      <c r="ED3" s="18"/>
-      <c r="EE3" s="18"/>
-      <c r="EF3" s="18"/>
-      <c r="EG3" s="18"/>
-      <c r="EH3" s="18"/>
-      <c r="EI3" s="18"/>
-      <c r="EJ3" s="18"/>
-      <c r="EK3" s="18"/>
-      <c r="EL3" s="18"/>
-      <c r="EM3" s="18"/>
-      <c r="EN3" s="18"/>
-      <c r="EO3" s="18"/>
-      <c r="EP3" s="18"/>
-      <c r="EQ3" s="18"/>
-      <c r="ER3" s="18"/>
-      <c r="ES3" s="18"/>
-      <c r="ET3" s="18"/>
-      <c r="EU3" s="18"/>
-      <c r="EV3" s="18"/>
-      <c r="EW3" s="18"/>
-      <c r="EX3" s="18"/>
-      <c r="EY3" s="18"/>
-      <c r="EZ3" s="18"/>
-      <c r="FA3" s="18"/>
-      <c r="FB3" s="18"/>
-      <c r="FC3" s="18"/>
-      <c r="FD3" s="18"/>
-      <c r="FE3" s="18"/>
-      <c r="FF3" s="18"/>
-      <c r="FG3" s="18"/>
-      <c r="FH3" s="18"/>
-      <c r="FI3" s="18"/>
-      <c r="FJ3" s="18"/>
-      <c r="FK3" s="18"/>
-      <c r="FL3" s="18"/>
-      <c r="FM3" s="18"/>
-      <c r="FN3" s="18"/>
-      <c r="FO3" s="18"/>
-      <c r="FP3" s="18"/>
-      <c r="FQ3" s="18"/>
-      <c r="FR3" s="18"/>
-      <c r="FS3" s="18"/>
-      <c r="FT3" s="18"/>
-      <c r="FU3" s="18"/>
-      <c r="FV3" s="18"/>
-      <c r="FW3" s="18"/>
-      <c r="FX3" s="18"/>
-      <c r="FY3" s="18"/>
-      <c r="FZ3" s="18"/>
-      <c r="GA3" s="18"/>
-      <c r="GB3" s="18"/>
-      <c r="GC3" s="18"/>
-      <c r="GD3" s="18"/>
-      <c r="GE3" s="18"/>
-      <c r="GF3" s="18"/>
-      <c r="GG3" s="18"/>
-      <c r="GH3" s="18"/>
-      <c r="GI3" s="18"/>
-      <c r="GJ3" s="18"/>
-      <c r="GK3" s="18"/>
-      <c r="GL3" s="18"/>
-      <c r="GM3" s="18"/>
-      <c r="GN3" s="18"/>
-      <c r="GO3" s="18"/>
-      <c r="GP3" s="18"/>
-      <c r="GQ3" s="18"/>
-      <c r="GR3" s="18"/>
-      <c r="GS3" s="18"/>
-      <c r="GT3" s="18"/>
-      <c r="GU3" s="18"/>
-      <c r="GV3" s="18"/>
-      <c r="GW3" s="18"/>
-      <c r="GX3" s="18"/>
-      <c r="GY3" s="18"/>
-      <c r="GZ3" s="18"/>
-      <c r="HA3" s="18"/>
-      <c r="HB3" s="18"/>
-      <c r="HC3" s="18"/>
-      <c r="HD3" s="18"/>
-      <c r="HE3" s="18"/>
-      <c r="HF3" s="18"/>
-      <c r="HG3" s="18"/>
-      <c r="HH3" s="18"/>
-      <c r="HI3" s="18"/>
-      <c r="HJ3" s="18"/>
-      <c r="HK3" s="18"/>
-      <c r="HL3" s="18"/>
-      <c r="HM3" s="18"/>
-      <c r="HN3" s="18"/>
-      <c r="HO3" s="18"/>
-      <c r="HP3" s="18"/>
-      <c r="HQ3" s="18"/>
-      <c r="HR3" s="18"/>
-      <c r="HS3" s="18"/>
-      <c r="HT3" s="18"/>
-      <c r="HU3" s="18"/>
-      <c r="HV3" s="18"/>
-      <c r="HW3" s="18"/>
-      <c r="HX3" s="18"/>
-      <c r="HY3" s="18"/>
-      <c r="HZ3" s="18"/>
-      <c r="IA3" s="18"/>
-      <c r="IB3" s="18"/>
-      <c r="IC3" s="18"/>
-      <c r="ID3" s="18"/>
-      <c r="IE3" s="18"/>
-      <c r="IF3" s="18"/>
-      <c r="IG3" s="18"/>
-      <c r="IH3" s="18"/>
-      <c r="II3" s="18"/>
-      <c r="IJ3" s="18"/>
-      <c r="IK3" s="18"/>
-      <c r="IL3" s="18"/>
-      <c r="IM3" s="18"/>
-      <c r="IN3" s="18"/>
-      <c r="IO3" s="18"/>
-      <c r="IP3" s="18"/>
-      <c r="IQ3" s="18"/>
-      <c r="IR3" s="18"/>
-      <c r="IS3" s="18"/>
-      <c r="IT3" s="18"/>
-      <c r="IU3" s="18"/>
-      <c r="IV3" s="18"/>
-      <c r="IW3" s="18"/>
-      <c r="IX3" s="18"/>
-      <c r="IY3" s="18"/>
-      <c r="IZ3" s="18"/>
-      <c r="JA3" s="18"/>
-      <c r="JB3" s="18"/>
-      <c r="JC3" s="18"/>
-      <c r="JD3" s="18"/>
-      <c r="JE3" s="18"/>
-      <c r="JF3" s="18"/>
-      <c r="JG3" s="18"/>
-      <c r="JH3" s="18"/>
-      <c r="JI3" s="18"/>
-      <c r="JJ3" s="18"/>
-      <c r="JK3" s="18"/>
-      <c r="JL3" s="18"/>
-      <c r="JM3" s="18"/>
+      <c r="J3" s="23">
+        <f>Data!F2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="23">
+        <f>Data!G2</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="23">
+        <f>Data!H2</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <f>Data!I2</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="23">
+        <f>Data!J2</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="23">
+        <f>Data!K2</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="23">
+        <f>Data!L2</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="23">
+        <f>Data!M2</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="23">
+        <f>Data!N2</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="23">
+        <f>Data!O2</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="23">
+        <f>Data!P2</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="23">
+        <f>Data!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="23">
+        <f>Data!R2</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="23">
+        <f>Data!S2</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="23">
+        <f>Data!T2</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="23">
+        <f>Data!U2</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="23">
+        <f>Data!V2</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="23">
+        <f>Data!W2</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <f>Data!X2</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <f>Data!Y2</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="23">
+        <f>Data!Z2</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="23">
+        <f>Data!AA2</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="23">
+        <f>Data!AB2</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="23">
+        <f>Data!AC2</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="23">
+        <f>Data!AD2</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="23">
+        <f>Data!AE2</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="23">
+        <f>Data!AF2</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="23">
+        <f>Data!AG2</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="23">
+        <f>Data!AH2</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="23">
+        <f>Data!AI2</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="23">
+        <f>Data!AJ2</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="23">
+        <f>Data!AK2</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="23">
+        <f>Data!AL2</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="23">
+        <f>Data!AM2</f>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="23">
+        <f>Data!AN2</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="23">
+        <f>Data!AO2</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="23">
+        <f>Data!AP2</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="23">
+        <f>Data!AQ2</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="23">
+        <f>Data!AR2</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="23">
+        <f>Data!AS2</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="23">
+        <f>Data!AT2</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="23">
+        <f>Data!AU2</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="23">
+        <f>Data!AV2</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="23">
+        <f>Data!AW2</f>
+        <v>0</v>
+      </c>
+      <c r="BB3" s="23">
+        <f>Data!AX2</f>
+        <v>0</v>
+      </c>
+      <c r="BC3" s="23">
+        <f>Data!AY2</f>
+        <v>0</v>
+      </c>
+      <c r="BD3" s="23">
+        <f>Data!AZ2</f>
+        <v>0</v>
+      </c>
+      <c r="BE3" s="23">
+        <f>Data!BA2</f>
+        <v>0</v>
+      </c>
+      <c r="BF3" s="23">
+        <f>Data!BB2</f>
+        <v>0</v>
+      </c>
+      <c r="BG3" s="23">
+        <f>Data!BC2</f>
+        <v>0</v>
+      </c>
+      <c r="BH3" s="23">
+        <f>Data!BD2</f>
+        <v>0</v>
+      </c>
+      <c r="BI3" s="23">
+        <f>Data!BE2</f>
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="23">
+        <f>Data!BF2</f>
+        <v>0</v>
+      </c>
+      <c r="BK3" s="23">
+        <f>Data!BG2</f>
+        <v>0</v>
+      </c>
+      <c r="BL3" s="23">
+        <f>Data!BH2</f>
+        <v>0</v>
+      </c>
+      <c r="BM3" s="23">
+        <f>Data!BI2</f>
+        <v>0</v>
+      </c>
+      <c r="BN3" s="23">
+        <f>Data!BJ2</f>
+        <v>0</v>
+      </c>
+      <c r="BO3" s="23">
+        <f>Data!BK2</f>
+        <v>0</v>
+      </c>
+      <c r="BP3" s="23">
+        <f>Data!BL2</f>
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="23">
+        <f>Data!BM2</f>
+        <v>0</v>
+      </c>
+      <c r="BR3" s="23">
+        <f>Data!BN2</f>
+        <v>0</v>
+      </c>
+      <c r="BS3" s="23">
+        <f>Data!BO2</f>
+        <v>0</v>
+      </c>
+      <c r="BT3" s="23">
+        <f>Data!BP2</f>
+        <v>0</v>
+      </c>
+      <c r="BU3" s="23">
+        <f>Data!BQ2</f>
+        <v>0</v>
+      </c>
+      <c r="BV3" s="23">
+        <f>Data!BR2</f>
+        <v>0</v>
+      </c>
+      <c r="BW3" s="23">
+        <f>Data!BS2</f>
+        <v>0</v>
+      </c>
+      <c r="BX3" s="23">
+        <f>Data!BT2</f>
+        <v>0</v>
+      </c>
+      <c r="BY3" s="23">
+        <f>Data!BU2</f>
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="23">
+        <f>Data!BV2</f>
+        <v>0</v>
+      </c>
+      <c r="CA3" s="23">
+        <f>Data!BW2</f>
+        <v>0</v>
+      </c>
+      <c r="CB3" s="23">
+        <f>Data!BX2</f>
+        <v>0</v>
+      </c>
+      <c r="CC3" s="23">
+        <f>Data!BY2</f>
+        <v>0</v>
+      </c>
+      <c r="CD3" s="23">
+        <f>Data!BZ2</f>
+        <v>0</v>
+      </c>
+      <c r="CE3" s="23">
+        <f>Data!CA2</f>
+        <v>0</v>
+      </c>
+      <c r="CF3" s="23">
+        <f>Data!CB2</f>
+        <v>0</v>
+      </c>
+      <c r="CG3" s="23">
+        <f>Data!CC2</f>
+        <v>0</v>
+      </c>
+      <c r="CH3" s="23">
+        <f>Data!CD2</f>
+        <v>0</v>
+      </c>
+      <c r="CI3" s="23">
+        <f>Data!CE2</f>
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="23">
+        <f>Data!CF2</f>
+        <v>0</v>
+      </c>
+      <c r="CK3" s="23">
+        <f>Data!CG2</f>
+        <v>0</v>
+      </c>
+      <c r="CL3" s="23">
+        <f>Data!CH2</f>
+        <v>0</v>
+      </c>
+      <c r="CM3" s="23">
+        <f>Data!CI2</f>
+        <v>0</v>
+      </c>
+      <c r="CN3" s="23">
+        <f>Data!CJ2</f>
+        <v>0</v>
+      </c>
+      <c r="CO3" s="23">
+        <f>Data!CK2</f>
+        <v>0</v>
+      </c>
+      <c r="CP3" s="23">
+        <f>Data!CL2</f>
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="23">
+        <f>Data!CM2</f>
+        <v>0</v>
+      </c>
+      <c r="CR3" s="23">
+        <f>Data!CN2</f>
+        <v>0</v>
+      </c>
+      <c r="CS3" s="23">
+        <f>Data!CO2</f>
+        <v>0</v>
+      </c>
+      <c r="CT3" s="23">
+        <f>Data!CP2</f>
+        <v>0</v>
+      </c>
+      <c r="CU3" s="23">
+        <f>Data!CQ2</f>
+        <v>0</v>
+      </c>
+      <c r="CV3" s="23">
+        <f>Data!CR2</f>
+        <v>0</v>
+      </c>
+      <c r="CW3" s="23">
+        <f>Data!CS2</f>
+        <v>0</v>
+      </c>
+      <c r="CX3" s="23">
+        <f>Data!CT2</f>
+        <v>0</v>
+      </c>
+      <c r="CY3" s="23">
+        <f>Data!CU2</f>
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="23">
+        <f>Data!CV2</f>
+        <v>0</v>
+      </c>
+      <c r="DA3" s="23">
+        <f>Data!CW2</f>
+        <v>0</v>
+      </c>
+      <c r="DB3" s="23">
+        <f>Data!CX2</f>
+        <v>0</v>
+      </c>
+      <c r="DC3" s="23">
+        <f>Data!CY2</f>
+        <v>0</v>
+      </c>
+      <c r="DD3" s="23">
+        <f>Data!CZ2</f>
+        <v>0</v>
+      </c>
+      <c r="DE3" s="23">
+        <f>Data!DA2</f>
+        <v>0</v>
+      </c>
+      <c r="DF3" s="23">
+        <f>Data!DB2</f>
+        <v>0</v>
+      </c>
+      <c r="DG3" s="23">
+        <f>Data!DC2</f>
+        <v>0</v>
+      </c>
+      <c r="DH3" s="23">
+        <f>Data!DD2</f>
+        <v>0</v>
+      </c>
+      <c r="DI3" s="23">
+        <f>Data!DE2</f>
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="23">
+        <f>Data!DF2</f>
+        <v>0</v>
+      </c>
+      <c r="DK3" s="23">
+        <f>Data!DG2</f>
+        <v>0</v>
+      </c>
+      <c r="DL3" s="23">
+        <f>Data!DH2</f>
+        <v>0</v>
+      </c>
+      <c r="DM3" s="23">
+        <f>Data!DI2</f>
+        <v>0</v>
+      </c>
+      <c r="DN3" s="23">
+        <f>Data!DJ2</f>
+        <v>0</v>
+      </c>
+      <c r="DO3" s="23">
+        <f>Data!DK2</f>
+        <v>0</v>
+      </c>
+      <c r="DP3" s="23">
+        <f>Data!DL2</f>
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="23">
+        <f>Data!DM2</f>
+        <v>0</v>
+      </c>
+      <c r="DR3" s="23">
+        <f>Data!DN2</f>
+        <v>0</v>
+      </c>
+      <c r="DS3" s="23">
+        <f>Data!DO2</f>
+        <v>0</v>
+      </c>
+      <c r="DT3" s="23">
+        <f>Data!DP2</f>
+        <v>0</v>
+      </c>
+      <c r="DU3" s="23">
+        <f>Data!DQ2</f>
+        <v>0</v>
+      </c>
+      <c r="DV3" s="23">
+        <f>Data!DR2</f>
+        <v>0</v>
+      </c>
+      <c r="DW3" s="23">
+        <f>Data!DS2</f>
+        <v>0</v>
+      </c>
+      <c r="DX3" s="23">
+        <f>Data!DT2</f>
+        <v>0</v>
+      </c>
+      <c r="DY3" s="23">
+        <f>Data!DU2</f>
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="23">
+        <f>Data!DV2</f>
+        <v>0</v>
+      </c>
+      <c r="EA3" s="23">
+        <f>Data!DW2</f>
+        <v>0</v>
+      </c>
+      <c r="EB3" s="23">
+        <f>Data!DX2</f>
+        <v>0</v>
+      </c>
+      <c r="EC3" s="23">
+        <f>Data!DY2</f>
+        <v>0</v>
+      </c>
+      <c r="ED3" s="23">
+        <f>Data!DZ2</f>
+        <v>0</v>
+      </c>
+      <c r="EE3" s="23">
+        <f>Data!EA2</f>
+        <v>0</v>
+      </c>
+      <c r="EF3" s="23">
+        <f>Data!EB2</f>
+        <v>0</v>
+      </c>
+      <c r="EG3" s="23">
+        <f>Data!EC2</f>
+        <v>0</v>
+      </c>
+      <c r="EH3" s="23">
+        <f>Data!ED2</f>
+        <v>0</v>
+      </c>
+      <c r="EI3" s="23">
+        <f>Data!EE2</f>
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="23">
+        <f>Data!EF2</f>
+        <v>0</v>
+      </c>
+      <c r="EK3" s="23">
+        <f>Data!EG2</f>
+        <v>0</v>
+      </c>
+      <c r="EL3" s="23">
+        <f>Data!EH2</f>
+        <v>0</v>
+      </c>
+      <c r="EM3" s="23">
+        <f>Data!EI2</f>
+        <v>0</v>
+      </c>
+      <c r="EN3" s="23">
+        <f>Data!EJ2</f>
+        <v>0</v>
+      </c>
+      <c r="EO3" s="23">
+        <f>Data!EK2</f>
+        <v>0</v>
+      </c>
+      <c r="EP3" s="23">
+        <f>Data!EL2</f>
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="23">
+        <f>Data!EM2</f>
+        <v>0</v>
+      </c>
+      <c r="ER3" s="23">
+        <f>Data!EN2</f>
+        <v>0</v>
+      </c>
+      <c r="ES3" s="23">
+        <f>Data!EO2</f>
+        <v>0</v>
+      </c>
+      <c r="ET3" s="23">
+        <f>Data!EP2</f>
+        <v>0</v>
+      </c>
+      <c r="EU3" s="23">
+        <f>Data!EQ2</f>
+        <v>0</v>
+      </c>
+      <c r="EV3" s="23">
+        <f>Data!ER2</f>
+        <v>0</v>
+      </c>
+      <c r="EW3" s="23">
+        <f>Data!ES2</f>
+        <v>0</v>
+      </c>
+      <c r="EX3" s="23">
+        <f>Data!ET2</f>
+        <v>0</v>
+      </c>
+      <c r="EY3" s="23">
+        <f>Data!EU2</f>
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="23">
+        <f>Data!EV2</f>
+        <v>0</v>
+      </c>
+      <c r="FA3" s="23">
+        <f>Data!EW2</f>
+        <v>0</v>
+      </c>
+      <c r="FB3" s="23">
+        <f>Data!EX2</f>
+        <v>0</v>
+      </c>
+      <c r="FC3" s="23">
+        <f>Data!EY2</f>
+        <v>0</v>
+      </c>
+      <c r="FD3" s="23">
+        <f>Data!EZ2</f>
+        <v>0</v>
+      </c>
+      <c r="FE3" s="23">
+        <f>Data!FA2</f>
+        <v>0</v>
+      </c>
+      <c r="FF3" s="23">
+        <f>Data!FB2</f>
+        <v>0</v>
+      </c>
+      <c r="FG3" s="23">
+        <f>Data!FC2</f>
+        <v>0</v>
+      </c>
+      <c r="FH3" s="23">
+        <f>Data!FD2</f>
+        <v>0</v>
+      </c>
+      <c r="FI3" s="23">
+        <f>Data!FE2</f>
+        <v>0</v>
+      </c>
+      <c r="FJ3" s="23">
+        <f>Data!FF2</f>
+        <v>0</v>
+      </c>
+      <c r="FK3" s="23">
+        <f>Data!FG2</f>
+        <v>0</v>
+      </c>
+      <c r="FL3" s="23">
+        <f>Data!FH2</f>
+        <v>0</v>
+      </c>
+      <c r="FM3" s="23">
+        <f>Data!FI2</f>
+        <v>0</v>
+      </c>
+      <c r="FN3" s="23">
+        <f>Data!FJ2</f>
+        <v>0</v>
+      </c>
+      <c r="FO3" s="23">
+        <f>Data!FK2</f>
+        <v>0</v>
+      </c>
+      <c r="FP3" s="23">
+        <f>Data!FL2</f>
+        <v>0</v>
+      </c>
+      <c r="FQ3" s="23">
+        <f>Data!FM2</f>
+        <v>0</v>
+      </c>
+      <c r="FR3" s="23">
+        <f>Data!FN2</f>
+        <v>0</v>
+      </c>
+      <c r="FS3" s="23">
+        <f>Data!FO2</f>
+        <v>0</v>
+      </c>
+      <c r="FT3" s="23">
+        <f>Data!FP2</f>
+        <v>0</v>
+      </c>
+      <c r="FU3" s="23">
+        <f>Data!FQ2</f>
+        <v>0</v>
+      </c>
+      <c r="FV3" s="23">
+        <f>Data!FR2</f>
+        <v>0</v>
+      </c>
+      <c r="FW3" s="23">
+        <f>Data!FS2</f>
+        <v>0</v>
+      </c>
+      <c r="FX3" s="23">
+        <f>Data!FT2</f>
+        <v>0</v>
+      </c>
+      <c r="FY3" s="23">
+        <f>Data!FU2</f>
+        <v>0</v>
+      </c>
+      <c r="FZ3" s="23">
+        <f>Data!FV2</f>
+        <v>0</v>
+      </c>
+      <c r="GA3" s="23">
+        <f>Data!FW2</f>
+        <v>0</v>
+      </c>
+      <c r="GB3" s="23">
+        <f>Data!FX2</f>
+        <v>0</v>
+      </c>
+      <c r="GC3" s="23">
+        <f>Data!FY2</f>
+        <v>0</v>
+      </c>
+      <c r="GD3" s="23">
+        <f>Data!FZ2</f>
+        <v>0</v>
+      </c>
+      <c r="GE3" s="23">
+        <f>Data!GA2</f>
+        <v>0</v>
+      </c>
+      <c r="GF3" s="23">
+        <f>Data!GB2</f>
+        <v>0</v>
+      </c>
+      <c r="GG3" s="23">
+        <f>Data!GC2</f>
+        <v>0</v>
+      </c>
+      <c r="GH3" s="23">
+        <f>Data!GD2</f>
+        <v>0</v>
+      </c>
+      <c r="GI3" s="23">
+        <f>Data!GE2</f>
+        <v>0</v>
+      </c>
+      <c r="GJ3" s="23">
+        <f>Data!GF2</f>
+        <v>0</v>
+      </c>
+      <c r="GK3" s="23">
+        <f>Data!GG2</f>
+        <v>0</v>
+      </c>
+      <c r="GL3" s="23">
+        <f>Data!GH2</f>
+        <v>0</v>
+      </c>
+      <c r="GM3" s="23">
+        <f>Data!GI2</f>
+        <v>0</v>
+      </c>
+      <c r="GN3" s="23">
+        <f>Data!GJ2</f>
+        <v>0</v>
+      </c>
+      <c r="GO3" s="23">
+        <f>Data!GK2</f>
+        <v>0</v>
+      </c>
+      <c r="GP3" s="23">
+        <f>Data!GL2</f>
+        <v>0</v>
+      </c>
+      <c r="GQ3" s="23">
+        <f>Data!GM2</f>
+        <v>0</v>
+      </c>
+      <c r="GR3" s="23">
+        <f>Data!GN2</f>
+        <v>0</v>
+      </c>
+      <c r="GS3" s="23">
+        <f>Data!GO2</f>
+        <v>0</v>
+      </c>
+      <c r="GT3" s="23">
+        <f>Data!GP2</f>
+        <v>0</v>
+      </c>
+      <c r="GU3" s="23">
+        <f>Data!GQ2</f>
+        <v>0</v>
+      </c>
+      <c r="GV3" s="23">
+        <f>Data!GR2</f>
+        <v>0</v>
+      </c>
+      <c r="GW3" s="23">
+        <f>Data!GS2</f>
+        <v>0</v>
+      </c>
+      <c r="GX3" s="23">
+        <f>Data!GT2</f>
+        <v>0</v>
+      </c>
+      <c r="GY3" s="23">
+        <f>Data!GU2</f>
+        <v>0</v>
+      </c>
+      <c r="GZ3" s="23">
+        <f>Data!GV2</f>
+        <v>0</v>
+      </c>
+      <c r="HA3" s="23">
+        <f>Data!GW2</f>
+        <v>0</v>
+      </c>
+      <c r="HB3" s="23">
+        <f>Data!GX2</f>
+        <v>0</v>
+      </c>
+      <c r="HC3" s="23">
+        <f>Data!GY2</f>
+        <v>0</v>
+      </c>
+      <c r="HD3" s="23">
+        <f>Data!GZ2</f>
+        <v>0</v>
+      </c>
+      <c r="HE3" s="23">
+        <f>Data!HA2</f>
+        <v>0</v>
+      </c>
+      <c r="HF3" s="23">
+        <f>Data!HB2</f>
+        <v>0</v>
+      </c>
+      <c r="HG3" s="23">
+        <f>Data!HC2</f>
+        <v>0</v>
+      </c>
+      <c r="HH3" s="23">
+        <f>Data!HD2</f>
+        <v>0</v>
+      </c>
+      <c r="HI3" s="23">
+        <f>Data!HE2</f>
+        <v>0</v>
+      </c>
+      <c r="HJ3" s="23">
+        <f>Data!HF2</f>
+        <v>0</v>
+      </c>
+      <c r="HK3" s="23">
+        <f>Data!HG2</f>
+        <v>0</v>
+      </c>
+      <c r="HL3" s="23">
+        <f>Data!HH2</f>
+        <v>0</v>
+      </c>
+      <c r="HM3" s="23">
+        <f>Data!HI2</f>
+        <v>0</v>
+      </c>
+      <c r="HN3" s="23">
+        <f>Data!HJ2</f>
+        <v>0</v>
+      </c>
+      <c r="HO3" s="23">
+        <f>Data!HK2</f>
+        <v>0</v>
+      </c>
+      <c r="HP3" s="23">
+        <f>Data!HL2</f>
+        <v>0</v>
+      </c>
+      <c r="HQ3" s="23">
+        <f>Data!HM2</f>
+        <v>0</v>
+      </c>
+      <c r="HR3" s="23">
+        <f>Data!HN2</f>
+        <v>0</v>
+      </c>
+      <c r="HS3" s="23">
+        <f>Data!HO2</f>
+        <v>0</v>
+      </c>
+      <c r="HT3" s="23">
+        <f>Data!HP2</f>
+        <v>0</v>
+      </c>
+      <c r="HU3" s="23">
+        <f>Data!HQ2</f>
+        <v>0</v>
+      </c>
+      <c r="HV3" s="23">
+        <f>Data!HR2</f>
+        <v>0</v>
+      </c>
+      <c r="HW3" s="23">
+        <f>Data!HS2</f>
+        <v>0</v>
+      </c>
+      <c r="HX3" s="23">
+        <f>Data!HT2</f>
+        <v>0</v>
+      </c>
+      <c r="HY3" s="23">
+        <f>Data!HU2</f>
+        <v>0</v>
+      </c>
+      <c r="HZ3" s="23">
+        <f>Data!HV2</f>
+        <v>0</v>
+      </c>
+      <c r="IA3" s="23">
+        <f>Data!HW2</f>
+        <v>0</v>
+      </c>
+      <c r="IB3" s="23">
+        <f>Data!HX2</f>
+        <v>0</v>
+      </c>
+      <c r="IC3" s="23">
+        <f>Data!HY2</f>
+        <v>0</v>
+      </c>
+      <c r="ID3" s="23">
+        <f>Data!HZ2</f>
+        <v>0</v>
+      </c>
+      <c r="IE3" s="23">
+        <f>Data!IA2</f>
+        <v>0</v>
+      </c>
+      <c r="IF3" s="23">
+        <f>Data!IB2</f>
+        <v>0</v>
+      </c>
+      <c r="IG3" s="23">
+        <f>Data!IC2</f>
+        <v>0</v>
+      </c>
+      <c r="IH3" s="23">
+        <f>Data!ID2</f>
+        <v>0</v>
+      </c>
+      <c r="II3" s="23">
+        <f>Data!IE2</f>
+        <v>0</v>
+      </c>
+      <c r="IJ3" s="23">
+        <f>Data!IF2</f>
+        <v>0</v>
+      </c>
+      <c r="IK3" s="23">
+        <f>Data!IG2</f>
+        <v>0</v>
+      </c>
+      <c r="IL3" s="23">
+        <f>Data!IH2</f>
+        <v>0</v>
+      </c>
+      <c r="IM3" s="23">
+        <f>Data!II2</f>
+        <v>0</v>
+      </c>
+      <c r="IN3" s="23">
+        <f>Data!IJ2</f>
+        <v>0</v>
+      </c>
+      <c r="IO3" s="23">
+        <f>Data!IK2</f>
+        <v>0</v>
+      </c>
+      <c r="IP3" s="23">
+        <f>Data!IL2</f>
+        <v>0</v>
+      </c>
+      <c r="IQ3" s="23">
+        <f>Data!IM2</f>
+        <v>0</v>
+      </c>
+      <c r="IR3" s="23">
+        <f>Data!IN2</f>
+        <v>0</v>
+      </c>
+      <c r="IS3" s="23">
+        <f>Data!IO2</f>
+        <v>0</v>
+      </c>
+      <c r="IT3" s="23">
+        <f>Data!IP2</f>
+        <v>0</v>
+      </c>
+      <c r="IU3" s="23">
+        <f>Data!IQ2</f>
+        <v>0</v>
+      </c>
+      <c r="IV3" s="23">
+        <f>Data!IR2</f>
+        <v>0</v>
+      </c>
+      <c r="IW3" s="23">
+        <f>Data!IS2</f>
+        <v>0</v>
+      </c>
+      <c r="IX3" s="23">
+        <f>Data!IT2</f>
+        <v>0</v>
+      </c>
+      <c r="IY3" s="23">
+        <f>Data!IU2</f>
+        <v>0</v>
+      </c>
+      <c r="IZ3" s="23">
+        <f>Data!IV2</f>
+        <v>0</v>
+      </c>
+      <c r="JA3" s="23">
+        <f>Data!IW2</f>
+        <v>0</v>
+      </c>
+      <c r="JB3" s="23">
+        <f>Data!IX2</f>
+        <v>0</v>
+      </c>
+      <c r="JC3" s="23">
+        <f>Data!IY2</f>
+        <v>0</v>
+      </c>
+      <c r="JD3" s="23">
+        <f>Data!IZ2</f>
+        <v>0</v>
+      </c>
+      <c r="JE3" s="23">
+        <f>Data!JA2</f>
+        <v>0</v>
+      </c>
+      <c r="JF3" s="23">
+        <f>Data!JB2</f>
+        <v>0</v>
+      </c>
+      <c r="JG3" s="23">
+        <f>Data!JC2</f>
+        <v>0</v>
+      </c>
+      <c r="JH3" s="23">
+        <f>Data!JD2</f>
+        <v>0</v>
+      </c>
+      <c r="JI3" s="23">
+        <f>Data!JE2</f>
+        <v>0</v>
+      </c>
+      <c r="JJ3" s="23">
+        <f>Data!JF2</f>
+        <v>0</v>
+      </c>
+      <c r="JK3" s="23">
+        <f>Data!JG2</f>
+        <v>0</v>
+      </c>
+      <c r="JL3" s="23">
+        <f>Data!JH2</f>
+        <v>0</v>
+      </c>
+      <c r="JM3" s="23">
+        <f>Data!JI2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:273" ht="15.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:273" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>STDEV(H4:HI4)</f>
-        <v>1.6871567799111017E-2</v>
-      </c>
-      <c r="C4" s="3">
+        <v>0.14062330167018006</v>
+      </c>
+      <c r="C4" s="2">
         <f>AVERAGE(H4:HI4)</f>
-        <v>1.4443699999999999</v>
-      </c>
-      <c r="D4" s="3">
+        <v>1.3755904761904761E-2</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" ref="D4" si="0">C4+3*B4</f>
-        <v>1.4949847033973329</v>
-      </c>
-      <c r="E4" s="3">
+        <v>0.43562580977244492</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" ref="E4" si="1">C4+2*B4</f>
-        <v>1.478113135598222</v>
-      </c>
-      <c r="F4" s="3">
+        <v>0.29500250810226486</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" ref="F4" si="2">C4-2*B4</f>
-        <v>1.4106268644017779</v>
-      </c>
-      <c r="G4" s="3">
+        <v>-0.26749069857845537</v>
+      </c>
+      <c r="G4" s="2">
         <f t="shared" ref="G4" si="3">C4-3*B4</f>
-        <v>1.3937552966026669</v>
-      </c>
-      <c r="H4" s="4">
+        <v>-0.40811400024863542</v>
+      </c>
+      <c r="H4" s="3">
         <v>1.4324399999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>1.4562999999999999</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
-      <c r="BT4" s="4"/>
-      <c r="BU4" s="4"/>
-      <c r="BV4" s="4"/>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4"/>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="4"/>
-      <c r="DD4" s="4"/>
-      <c r="DE4" s="4"/>
-      <c r="DF4" s="4"/>
-      <c r="DG4" s="4"/>
-      <c r="DH4" s="4"/>
-      <c r="DI4" s="4"/>
-      <c r="DJ4" s="4"/>
-      <c r="DK4" s="4"/>
-      <c r="DL4" s="4"/>
-      <c r="DM4" s="4"/>
-      <c r="DN4" s="4"/>
-      <c r="DO4" s="4"/>
-      <c r="DP4" s="4"/>
-      <c r="DQ4" s="4"/>
-      <c r="DR4" s="4"/>
-      <c r="DS4" s="4"/>
-      <c r="DT4" s="4"/>
-      <c r="DU4" s="4"/>
-      <c r="DV4" s="4"/>
-      <c r="DW4" s="4"/>
-      <c r="DX4" s="4"/>
-      <c r="DY4" s="4"/>
-      <c r="DZ4" s="4"/>
-      <c r="EA4" s="4"/>
-      <c r="EB4" s="4"/>
-      <c r="EC4" s="4"/>
-      <c r="ED4" s="4"/>
-      <c r="EE4" s="4"/>
-      <c r="EF4" s="4"/>
-      <c r="EG4" s="4"/>
-      <c r="EH4" s="4"/>
-      <c r="EI4" s="4"/>
-      <c r="EJ4" s="4"/>
-      <c r="EK4" s="4"/>
-      <c r="EL4" s="4"/>
-      <c r="EM4" s="4"/>
-      <c r="EN4" s="4"/>
-      <c r="EO4" s="4"/>
-      <c r="EP4" s="4"/>
-      <c r="EQ4" s="4"/>
-      <c r="ER4" s="4"/>
-      <c r="ES4" s="4"/>
-      <c r="ET4" s="4"/>
-      <c r="EU4" s="4"/>
-      <c r="EV4" s="4"/>
-      <c r="EW4" s="4"/>
-      <c r="EX4" s="4"/>
-      <c r="EY4" s="4"/>
-      <c r="EZ4" s="4"/>
-      <c r="FA4" s="4"/>
-      <c r="FB4" s="4"/>
-      <c r="FC4" s="4"/>
-      <c r="FD4" s="4"/>
-      <c r="FE4" s="4"/>
-      <c r="FF4" s="4"/>
-      <c r="FG4" s="4"/>
-      <c r="FH4" s="4"/>
-      <c r="FI4" s="4"/>
-      <c r="FJ4" s="4"/>
-      <c r="FK4" s="4"/>
-      <c r="FL4" s="4"/>
-      <c r="FM4" s="4"/>
-      <c r="FN4" s="4"/>
-      <c r="FO4" s="4"/>
-      <c r="FP4" s="4"/>
-      <c r="FQ4" s="4"/>
-      <c r="FR4" s="4"/>
-      <c r="FS4" s="4"/>
-      <c r="FT4" s="4"/>
-      <c r="FU4" s="4"/>
-      <c r="FV4" s="4"/>
-      <c r="FW4" s="4"/>
-      <c r="FX4" s="4"/>
-      <c r="FY4" s="4"/>
-      <c r="FZ4" s="4"/>
-      <c r="GA4" s="4"/>
-      <c r="GB4" s="4"/>
-      <c r="GC4" s="4"/>
-      <c r="GD4" s="4"/>
-      <c r="GE4" s="4"/>
-      <c r="GF4" s="4"/>
-      <c r="GG4" s="4"/>
-      <c r="GH4" s="4"/>
-      <c r="GI4" s="4"/>
-      <c r="GJ4" s="4"/>
-      <c r="GK4" s="4"/>
-      <c r="GL4" s="4"/>
-      <c r="GM4" s="4"/>
-      <c r="GN4" s="4"/>
-      <c r="GO4" s="4"/>
-      <c r="GP4" s="4"/>
-      <c r="GQ4" s="4"/>
-      <c r="GR4" s="4"/>
-      <c r="GS4" s="4"/>
-      <c r="GT4" s="4"/>
-      <c r="GU4" s="4"/>
-      <c r="GV4" s="4"/>
-      <c r="GW4" s="4"/>
-      <c r="GX4" s="4"/>
-      <c r="GY4" s="4"/>
-      <c r="GZ4" s="4"/>
-      <c r="HA4" s="4"/>
-      <c r="HB4" s="4"/>
-      <c r="HC4" s="4"/>
-      <c r="HD4" s="4"/>
-      <c r="HE4" s="4"/>
-      <c r="HF4" s="4"/>
-      <c r="HG4" s="4"/>
-      <c r="HH4" s="4"/>
-      <c r="HI4" s="4"/>
-      <c r="HJ4" s="4"/>
-      <c r="HK4" s="4"/>
-      <c r="HL4" s="4"/>
-      <c r="HM4" s="4"/>
-      <c r="HN4" s="4"/>
-      <c r="HO4" s="4"/>
-      <c r="HP4" s="4"/>
-      <c r="HQ4" s="4"/>
-      <c r="HR4" s="4"/>
-      <c r="HS4" s="4"/>
-      <c r="HT4" s="4"/>
-      <c r="HU4" s="4"/>
-      <c r="HV4" s="4"/>
-      <c r="HW4" s="4"/>
-      <c r="HX4" s="4"/>
-      <c r="HY4" s="4"/>
-      <c r="HZ4" s="4"/>
-      <c r="IA4" s="4"/>
-      <c r="IB4" s="4"/>
-      <c r="IC4" s="4"/>
-      <c r="ID4" s="4"/>
-      <c r="IE4" s="4"/>
-      <c r="IF4" s="4"/>
-      <c r="IG4" s="4"/>
-      <c r="IH4" s="4"/>
-      <c r="II4" s="4"/>
-      <c r="IJ4" s="4"/>
-      <c r="IK4" s="4"/>
-      <c r="IL4" s="4"/>
-      <c r="IM4" s="4"/>
-      <c r="IN4" s="4"/>
-      <c r="IO4" s="4"/>
-      <c r="IP4" s="4"/>
-      <c r="IQ4" s="4"/>
-      <c r="IR4" s="4"/>
-      <c r="IS4" s="4"/>
-      <c r="IT4" s="4"/>
-      <c r="IU4" s="4"/>
-      <c r="IV4" s="4"/>
-      <c r="IW4" s="4"/>
-      <c r="IX4" s="4"/>
-      <c r="IY4" s="4"/>
-      <c r="IZ4" s="4"/>
-      <c r="JA4" s="4"/>
-      <c r="JB4" s="4"/>
-      <c r="JC4" s="4"/>
-      <c r="JD4" s="4"/>
-      <c r="JE4" s="4"/>
-      <c r="JF4" s="4"/>
-      <c r="JG4" s="4"/>
-      <c r="JH4" s="4"/>
-      <c r="JI4" s="4"/>
-      <c r="JJ4" s="4"/>
-      <c r="JK4" s="4"/>
-      <c r="JL4" s="4"/>
-      <c r="JM4" s="4"/>
+      <c r="J4" s="3">
+        <f>Data!F3</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <f>Data!G3</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>Data!H3</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Data!I3</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Data!J3</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Data!K3</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Data!L3</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Data!M3</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Data!N3</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Data!O3</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <f>Data!P3</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <f>Data!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <f>Data!R3</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <f>Data!S3</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <f>Data!T3</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <f>Data!U3</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>Data!V3</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <f>Data!W3</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>Data!X3</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3">
+        <f>Data!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3">
+        <f>Data!Z3</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3">
+        <f>Data!AA3</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <f>Data!AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <f>Data!AC3</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="3">
+        <f>Data!AD3</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="3">
+        <f>Data!AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="3">
+        <f>Data!AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="3">
+        <f>Data!AG3</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="3">
+        <f>Data!AH3</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="3">
+        <f>Data!AI3</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="3">
+        <f>Data!AJ3</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="3">
+        <f>Data!AK3</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="3">
+        <f>Data!AL3</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="3">
+        <f>Data!AM3</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="3">
+        <f>Data!AN3</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3">
+        <f>Data!AO3</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="3">
+        <f>Data!AP3</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="3">
+        <f>Data!AQ3</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="3">
+        <f>Data!AR3</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="3">
+        <f>Data!AS3</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="3">
+        <f>Data!AT3</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="3">
+        <f>Data!AU3</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="3">
+        <f>Data!AV3</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="3">
+        <f>Data!AW3</f>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="3">
+        <f>Data!AX3</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="3">
+        <f>Data!AY3</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="3">
+        <f>Data!AZ3</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="3">
+        <f>Data!BA3</f>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="3">
+        <f>Data!BB3</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="3">
+        <f>Data!BC3</f>
+        <v>0</v>
+      </c>
+      <c r="BH4" s="3">
+        <f>Data!BD3</f>
+        <v>0</v>
+      </c>
+      <c r="BI4" s="3">
+        <f>Data!BE3</f>
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="3">
+        <f>Data!BF3</f>
+        <v>0</v>
+      </c>
+      <c r="BK4" s="3">
+        <f>Data!BG3</f>
+        <v>0</v>
+      </c>
+      <c r="BL4" s="3">
+        <f>Data!BH3</f>
+        <v>0</v>
+      </c>
+      <c r="BM4" s="3">
+        <f>Data!BI3</f>
+        <v>0</v>
+      </c>
+      <c r="BN4" s="3">
+        <f>Data!BJ3</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="3">
+        <f>Data!BK3</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="3">
+        <f>Data!BL3</f>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="3">
+        <f>Data!BM3</f>
+        <v>0</v>
+      </c>
+      <c r="BR4" s="3">
+        <f>Data!BN3</f>
+        <v>0</v>
+      </c>
+      <c r="BS4" s="3">
+        <f>Data!BO3</f>
+        <v>0</v>
+      </c>
+      <c r="BT4" s="3">
+        <f>Data!BP3</f>
+        <v>0</v>
+      </c>
+      <c r="BU4" s="3">
+        <f>Data!BQ3</f>
+        <v>0</v>
+      </c>
+      <c r="BV4" s="3">
+        <f>Data!BR3</f>
+        <v>0</v>
+      </c>
+      <c r="BW4" s="3">
+        <f>Data!BS3</f>
+        <v>0</v>
+      </c>
+      <c r="BX4" s="3">
+        <f>Data!BT3</f>
+        <v>0</v>
+      </c>
+      <c r="BY4" s="3">
+        <f>Data!BU3</f>
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="3">
+        <f>Data!BV3</f>
+        <v>0</v>
+      </c>
+      <c r="CA4" s="3">
+        <f>Data!BW3</f>
+        <v>0</v>
+      </c>
+      <c r="CB4" s="3">
+        <f>Data!BX3</f>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="3">
+        <f>Data!BY3</f>
+        <v>0</v>
+      </c>
+      <c r="CD4" s="3">
+        <f>Data!BZ3</f>
+        <v>0</v>
+      </c>
+      <c r="CE4" s="3">
+        <f>Data!CA3</f>
+        <v>0</v>
+      </c>
+      <c r="CF4" s="3">
+        <f>Data!CB3</f>
+        <v>0</v>
+      </c>
+      <c r="CG4" s="3">
+        <f>Data!CC3</f>
+        <v>0</v>
+      </c>
+      <c r="CH4" s="3">
+        <f>Data!CD3</f>
+        <v>0</v>
+      </c>
+      <c r="CI4" s="3">
+        <f>Data!CE3</f>
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="3">
+        <f>Data!CF3</f>
+        <v>0</v>
+      </c>
+      <c r="CK4" s="3">
+        <f>Data!CG3</f>
+        <v>0</v>
+      </c>
+      <c r="CL4" s="3">
+        <f>Data!CH3</f>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="3">
+        <f>Data!CI3</f>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="3">
+        <f>Data!CJ3</f>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="3">
+        <f>Data!CK3</f>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="3">
+        <f>Data!CL3</f>
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="3">
+        <f>Data!CM3</f>
+        <v>0</v>
+      </c>
+      <c r="CR4" s="3">
+        <f>Data!CN3</f>
+        <v>0</v>
+      </c>
+      <c r="CS4" s="3">
+        <f>Data!CO3</f>
+        <v>0</v>
+      </c>
+      <c r="CT4" s="3">
+        <f>Data!CP3</f>
+        <v>0</v>
+      </c>
+      <c r="CU4" s="3">
+        <f>Data!CQ3</f>
+        <v>0</v>
+      </c>
+      <c r="CV4" s="3">
+        <f>Data!CR3</f>
+        <v>0</v>
+      </c>
+      <c r="CW4" s="3">
+        <f>Data!CS3</f>
+        <v>0</v>
+      </c>
+      <c r="CX4" s="3">
+        <f>Data!CT3</f>
+        <v>0</v>
+      </c>
+      <c r="CY4" s="3">
+        <f>Data!CU3</f>
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="3">
+        <f>Data!CV3</f>
+        <v>0</v>
+      </c>
+      <c r="DA4" s="3">
+        <f>Data!CW3</f>
+        <v>0</v>
+      </c>
+      <c r="DB4" s="3">
+        <f>Data!CX3</f>
+        <v>0</v>
+      </c>
+      <c r="DC4" s="3">
+        <f>Data!CY3</f>
+        <v>0</v>
+      </c>
+      <c r="DD4" s="3">
+        <f>Data!CZ3</f>
+        <v>0</v>
+      </c>
+      <c r="DE4" s="3">
+        <f>Data!DA3</f>
+        <v>0</v>
+      </c>
+      <c r="DF4" s="3">
+        <f>Data!DB3</f>
+        <v>0</v>
+      </c>
+      <c r="DG4" s="3">
+        <f>Data!DC3</f>
+        <v>0</v>
+      </c>
+      <c r="DH4" s="3">
+        <f>Data!DD3</f>
+        <v>0</v>
+      </c>
+      <c r="DI4" s="3">
+        <f>Data!DE3</f>
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="3">
+        <f>Data!DF3</f>
+        <v>0</v>
+      </c>
+      <c r="DK4" s="3">
+        <f>Data!DG3</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="3">
+        <f>Data!DH3</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="3">
+        <f>Data!DI3</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="3">
+        <f>Data!DJ3</f>
+        <v>0</v>
+      </c>
+      <c r="DO4" s="3">
+        <f>Data!DK3</f>
+        <v>0</v>
+      </c>
+      <c r="DP4" s="3">
+        <f>Data!DL3</f>
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="3">
+        <f>Data!DM3</f>
+        <v>0</v>
+      </c>
+      <c r="DR4" s="3">
+        <f>Data!DN3</f>
+        <v>0</v>
+      </c>
+      <c r="DS4" s="3">
+        <f>Data!DO3</f>
+        <v>0</v>
+      </c>
+      <c r="DT4" s="3">
+        <f>Data!DP3</f>
+        <v>0</v>
+      </c>
+      <c r="DU4" s="3">
+        <f>Data!DQ3</f>
+        <v>0</v>
+      </c>
+      <c r="DV4" s="3">
+        <f>Data!DR3</f>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="3">
+        <f>Data!DS3</f>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="3">
+        <f>Data!DT3</f>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="3">
+        <f>Data!DU3</f>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="3">
+        <f>Data!DV3</f>
+        <v>0</v>
+      </c>
+      <c r="EA4" s="3">
+        <f>Data!DW3</f>
+        <v>0</v>
+      </c>
+      <c r="EB4" s="3">
+        <f>Data!DX3</f>
+        <v>0</v>
+      </c>
+      <c r="EC4" s="3">
+        <f>Data!DY3</f>
+        <v>0</v>
+      </c>
+      <c r="ED4" s="3">
+        <f>Data!DZ3</f>
+        <v>0</v>
+      </c>
+      <c r="EE4" s="3">
+        <f>Data!EA3</f>
+        <v>0</v>
+      </c>
+      <c r="EF4" s="3">
+        <f>Data!EB3</f>
+        <v>0</v>
+      </c>
+      <c r="EG4" s="3">
+        <f>Data!EC3</f>
+        <v>0</v>
+      </c>
+      <c r="EH4" s="3">
+        <f>Data!ED3</f>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="3">
+        <f>Data!EE3</f>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="3">
+        <f>Data!EF3</f>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="3">
+        <f>Data!EG3</f>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="3">
+        <f>Data!EH3</f>
+        <v>0</v>
+      </c>
+      <c r="EM4" s="3">
+        <f>Data!EI3</f>
+        <v>0</v>
+      </c>
+      <c r="EN4" s="3">
+        <f>Data!EJ3</f>
+        <v>0</v>
+      </c>
+      <c r="EO4" s="3">
+        <f>Data!EK3</f>
+        <v>0</v>
+      </c>
+      <c r="EP4" s="3">
+        <f>Data!EL3</f>
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="3">
+        <f>Data!EM3</f>
+        <v>0</v>
+      </c>
+      <c r="ER4" s="3">
+        <f>Data!EN3</f>
+        <v>0</v>
+      </c>
+      <c r="ES4" s="3">
+        <f>Data!EO3</f>
+        <v>0</v>
+      </c>
+      <c r="ET4" s="3">
+        <f>Data!EP3</f>
+        <v>0</v>
+      </c>
+      <c r="EU4" s="3">
+        <f>Data!EQ3</f>
+        <v>0</v>
+      </c>
+      <c r="EV4" s="3">
+        <f>Data!ER3</f>
+        <v>0</v>
+      </c>
+      <c r="EW4" s="3">
+        <f>Data!ES3</f>
+        <v>0</v>
+      </c>
+      <c r="EX4" s="3">
+        <f>Data!ET3</f>
+        <v>0</v>
+      </c>
+      <c r="EY4" s="3">
+        <f>Data!EU3</f>
+        <v>0</v>
+      </c>
+      <c r="EZ4" s="3">
+        <f>Data!EV3</f>
+        <v>0</v>
+      </c>
+      <c r="FA4" s="3">
+        <f>Data!EW3</f>
+        <v>0</v>
+      </c>
+      <c r="FB4" s="3">
+        <f>Data!EX3</f>
+        <v>0</v>
+      </c>
+      <c r="FC4" s="3">
+        <f>Data!EY3</f>
+        <v>0</v>
+      </c>
+      <c r="FD4" s="3">
+        <f>Data!EZ3</f>
+        <v>0</v>
+      </c>
+      <c r="FE4" s="3">
+        <f>Data!FA3</f>
+        <v>0</v>
+      </c>
+      <c r="FF4" s="3">
+        <f>Data!FB3</f>
+        <v>0</v>
+      </c>
+      <c r="FG4" s="3">
+        <f>Data!FC3</f>
+        <v>0</v>
+      </c>
+      <c r="FH4" s="3">
+        <f>Data!FD3</f>
+        <v>0</v>
+      </c>
+      <c r="FI4" s="3">
+        <f>Data!FE3</f>
+        <v>0</v>
+      </c>
+      <c r="FJ4" s="3">
+        <f>Data!FF3</f>
+        <v>0</v>
+      </c>
+      <c r="FK4" s="3">
+        <f>Data!FG3</f>
+        <v>0</v>
+      </c>
+      <c r="FL4" s="3">
+        <f>Data!FH3</f>
+        <v>0</v>
+      </c>
+      <c r="FM4" s="3">
+        <f>Data!FI3</f>
+        <v>0</v>
+      </c>
+      <c r="FN4" s="3">
+        <f>Data!FJ3</f>
+        <v>0</v>
+      </c>
+      <c r="FO4" s="3">
+        <f>Data!FK3</f>
+        <v>0</v>
+      </c>
+      <c r="FP4" s="3">
+        <f>Data!FL3</f>
+        <v>0</v>
+      </c>
+      <c r="FQ4" s="3">
+        <f>Data!FM3</f>
+        <v>0</v>
+      </c>
+      <c r="FR4" s="3">
+        <f>Data!FN3</f>
+        <v>0</v>
+      </c>
+      <c r="FS4" s="3">
+        <f>Data!FO3</f>
+        <v>0</v>
+      </c>
+      <c r="FT4" s="3">
+        <f>Data!FP3</f>
+        <v>0</v>
+      </c>
+      <c r="FU4" s="3">
+        <f>Data!FQ3</f>
+        <v>0</v>
+      </c>
+      <c r="FV4" s="3">
+        <f>Data!FR3</f>
+        <v>0</v>
+      </c>
+      <c r="FW4" s="3">
+        <f>Data!FS3</f>
+        <v>0</v>
+      </c>
+      <c r="FX4" s="3">
+        <f>Data!FT3</f>
+        <v>0</v>
+      </c>
+      <c r="FY4" s="3">
+        <f>Data!FU3</f>
+        <v>0</v>
+      </c>
+      <c r="FZ4" s="3">
+        <f>Data!FV3</f>
+        <v>0</v>
+      </c>
+      <c r="GA4" s="3">
+        <f>Data!FW3</f>
+        <v>0</v>
+      </c>
+      <c r="GB4" s="3">
+        <f>Data!FX3</f>
+        <v>0</v>
+      </c>
+      <c r="GC4" s="3">
+        <f>Data!FY3</f>
+        <v>0</v>
+      </c>
+      <c r="GD4" s="3">
+        <f>Data!FZ3</f>
+        <v>0</v>
+      </c>
+      <c r="GE4" s="3">
+        <f>Data!GA3</f>
+        <v>0</v>
+      </c>
+      <c r="GF4" s="3">
+        <f>Data!GB3</f>
+        <v>0</v>
+      </c>
+      <c r="GG4" s="3">
+        <f>Data!GC3</f>
+        <v>0</v>
+      </c>
+      <c r="GH4" s="3">
+        <f>Data!GD3</f>
+        <v>0</v>
+      </c>
+      <c r="GI4" s="3">
+        <f>Data!GE3</f>
+        <v>0</v>
+      </c>
+      <c r="GJ4" s="3">
+        <f>Data!GF3</f>
+        <v>0</v>
+      </c>
+      <c r="GK4" s="3">
+        <f>Data!GG3</f>
+        <v>0</v>
+      </c>
+      <c r="GL4" s="3">
+        <f>Data!GH3</f>
+        <v>0</v>
+      </c>
+      <c r="GM4" s="3">
+        <f>Data!GI3</f>
+        <v>0</v>
+      </c>
+      <c r="GN4" s="3">
+        <f>Data!GJ3</f>
+        <v>0</v>
+      </c>
+      <c r="GO4" s="3">
+        <f>Data!GK3</f>
+        <v>0</v>
+      </c>
+      <c r="GP4" s="3">
+        <f>Data!GL3</f>
+        <v>0</v>
+      </c>
+      <c r="GQ4" s="3">
+        <f>Data!GM3</f>
+        <v>0</v>
+      </c>
+      <c r="GR4" s="3">
+        <f>Data!GN3</f>
+        <v>0</v>
+      </c>
+      <c r="GS4" s="3">
+        <f>Data!GO3</f>
+        <v>0</v>
+      </c>
+      <c r="GT4" s="3">
+        <f>Data!GP3</f>
+        <v>0</v>
+      </c>
+      <c r="GU4" s="3">
+        <f>Data!GQ3</f>
+        <v>0</v>
+      </c>
+      <c r="GV4" s="3">
+        <f>Data!GR3</f>
+        <v>0</v>
+      </c>
+      <c r="GW4" s="3">
+        <f>Data!GS3</f>
+        <v>0</v>
+      </c>
+      <c r="GX4" s="3">
+        <f>Data!GT3</f>
+        <v>0</v>
+      </c>
+      <c r="GY4" s="3">
+        <f>Data!GU3</f>
+        <v>0</v>
+      </c>
+      <c r="GZ4" s="3">
+        <f>Data!GV3</f>
+        <v>0</v>
+      </c>
+      <c r="HA4" s="3">
+        <f>Data!GW3</f>
+        <v>0</v>
+      </c>
+      <c r="HB4" s="3">
+        <f>Data!GX3</f>
+        <v>0</v>
+      </c>
+      <c r="HC4" s="3">
+        <f>Data!GY3</f>
+        <v>0</v>
+      </c>
+      <c r="HD4" s="3">
+        <f>Data!GZ3</f>
+        <v>0</v>
+      </c>
+      <c r="HE4" s="3">
+        <f>Data!HA3</f>
+        <v>0</v>
+      </c>
+      <c r="HF4" s="3">
+        <f>Data!HB3</f>
+        <v>0</v>
+      </c>
+      <c r="HG4" s="3">
+        <f>Data!HC3</f>
+        <v>0</v>
+      </c>
+      <c r="HH4" s="3">
+        <f>Data!HD3</f>
+        <v>0</v>
+      </c>
+      <c r="HI4" s="3">
+        <f>Data!HE3</f>
+        <v>0</v>
+      </c>
+      <c r="HJ4" s="3">
+        <f>Data!HF3</f>
+        <v>0</v>
+      </c>
+      <c r="HK4" s="3">
+        <f>Data!HG3</f>
+        <v>0</v>
+      </c>
+      <c r="HL4" s="3">
+        <f>Data!HH3</f>
+        <v>0</v>
+      </c>
+      <c r="HM4" s="3">
+        <f>Data!HI3</f>
+        <v>0</v>
+      </c>
+      <c r="HN4" s="3">
+        <f>Data!HJ3</f>
+        <v>0</v>
+      </c>
+      <c r="HO4" s="3">
+        <f>Data!HK3</f>
+        <v>0</v>
+      </c>
+      <c r="HP4" s="3">
+        <f>Data!HL3</f>
+        <v>0</v>
+      </c>
+      <c r="HQ4" s="3">
+        <f>Data!HM3</f>
+        <v>0</v>
+      </c>
+      <c r="HR4" s="3">
+        <f>Data!HN3</f>
+        <v>0</v>
+      </c>
+      <c r="HS4" s="3">
+        <f>Data!HO3</f>
+        <v>0</v>
+      </c>
+      <c r="HT4" s="3">
+        <f>Data!HP3</f>
+        <v>0</v>
+      </c>
+      <c r="HU4" s="3">
+        <f>Data!HQ3</f>
+        <v>0</v>
+      </c>
+      <c r="HV4" s="3">
+        <f>Data!HR3</f>
+        <v>0</v>
+      </c>
+      <c r="HW4" s="3">
+        <f>Data!HS3</f>
+        <v>0</v>
+      </c>
+      <c r="HX4" s="3">
+        <f>Data!HT3</f>
+        <v>0</v>
+      </c>
+      <c r="HY4" s="3">
+        <f>Data!HU3</f>
+        <v>0</v>
+      </c>
+      <c r="HZ4" s="3">
+        <f>Data!HV3</f>
+        <v>0</v>
+      </c>
+      <c r="IA4" s="3">
+        <f>Data!HW3</f>
+        <v>0</v>
+      </c>
+      <c r="IB4" s="3">
+        <f>Data!HX3</f>
+        <v>0</v>
+      </c>
+      <c r="IC4" s="3">
+        <f>Data!HY3</f>
+        <v>0</v>
+      </c>
+      <c r="ID4" s="3">
+        <f>Data!HZ3</f>
+        <v>0</v>
+      </c>
+      <c r="IE4" s="3">
+        <f>Data!IA3</f>
+        <v>0</v>
+      </c>
+      <c r="IF4" s="3">
+        <f>Data!IB3</f>
+        <v>0</v>
+      </c>
+      <c r="IG4" s="3">
+        <f>Data!IC3</f>
+        <v>0</v>
+      </c>
+      <c r="IH4" s="3">
+        <f>Data!ID3</f>
+        <v>0</v>
+      </c>
+      <c r="II4" s="3">
+        <f>Data!IE3</f>
+        <v>0</v>
+      </c>
+      <c r="IJ4" s="3">
+        <f>Data!IF3</f>
+        <v>0</v>
+      </c>
+      <c r="IK4" s="3">
+        <f>Data!IG3</f>
+        <v>0</v>
+      </c>
+      <c r="IL4" s="3">
+        <f>Data!IH3</f>
+        <v>0</v>
+      </c>
+      <c r="IM4" s="3">
+        <f>Data!II3</f>
+        <v>0</v>
+      </c>
+      <c r="IN4" s="3">
+        <f>Data!IJ3</f>
+        <v>0</v>
+      </c>
+      <c r="IO4" s="3">
+        <f>Data!IK3</f>
+        <v>0</v>
+      </c>
+      <c r="IP4" s="3">
+        <f>Data!IL3</f>
+        <v>0</v>
+      </c>
+      <c r="IQ4" s="3">
+        <f>Data!IM3</f>
+        <v>0</v>
+      </c>
+      <c r="IR4" s="3">
+        <f>Data!IN3</f>
+        <v>0</v>
+      </c>
+      <c r="IS4" s="3">
+        <f>Data!IO3</f>
+        <v>0</v>
+      </c>
+      <c r="IT4" s="3">
+        <f>Data!IP3</f>
+        <v>0</v>
+      </c>
+      <c r="IU4" s="3">
+        <f>Data!IQ3</f>
+        <v>0</v>
+      </c>
+      <c r="IV4" s="3">
+        <f>Data!IR3</f>
+        <v>0</v>
+      </c>
+      <c r="IW4" s="3">
+        <f>Data!IS3</f>
+        <v>0</v>
+      </c>
+      <c r="IX4" s="3">
+        <f>Data!IT3</f>
+        <v>0</v>
+      </c>
+      <c r="IY4" s="3">
+        <f>Data!IU3</f>
+        <v>0</v>
+      </c>
+      <c r="IZ4" s="3">
+        <f>Data!IV3</f>
+        <v>0</v>
+      </c>
+      <c r="JA4" s="3">
+        <f>Data!IW3</f>
+        <v>0</v>
+      </c>
+      <c r="JB4" s="3">
+        <f>Data!IX3</f>
+        <v>0</v>
+      </c>
+      <c r="JC4" s="3">
+        <f>Data!IY3</f>
+        <v>0</v>
+      </c>
+      <c r="JD4" s="3">
+        <f>Data!IZ3</f>
+        <v>0</v>
+      </c>
+      <c r="JE4" s="3">
+        <f>Data!JA3</f>
+        <v>0</v>
+      </c>
+      <c r="JF4" s="3">
+        <f>Data!JB3</f>
+        <v>0</v>
+      </c>
+      <c r="JG4" s="3">
+        <f>Data!JC3</f>
+        <v>0</v>
+      </c>
+      <c r="JH4" s="3">
+        <f>Data!JD3</f>
+        <v>0</v>
+      </c>
+      <c r="JI4" s="3">
+        <f>Data!JE3</f>
+        <v>0</v>
+      </c>
+      <c r="JJ4" s="3">
+        <f>Data!JF3</f>
+        <v>0</v>
+      </c>
+      <c r="JK4" s="3">
+        <f>Data!JG3</f>
+        <v>0</v>
+      </c>
+      <c r="JL4" s="3">
+        <f>Data!JH3</f>
+        <v>0</v>
+      </c>
+      <c r="JM4" s="3">
+        <f>Data!JI3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:273" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:273" ht="15.75" thickBot="1">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:273" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="str">
+    <row r="6" spans="1:273" ht="16.5" thickBot="1">
+      <c r="A6" s="4" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>HCHO</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" ref="B6:G6" ca="1" si="4">VLOOKUP(A6,A3:G4,2,0)</f>
-        <v>1.6871567799111017E-2</v>
-      </c>
-      <c r="C6" s="5">
+        <v>0.14062330167018006</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4443699999999999</v>
-      </c>
-      <c r="D6" s="5">
+        <v>1.3755904761904761E-2</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4949847033973329</v>
-      </c>
-      <c r="E6" s="5">
+        <v>0.43562580977244492</v>
+      </c>
+      <c r="E6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.478113135598222</v>
-      </c>
-      <c r="F6" s="5">
+        <v>0.29500250810226486</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4106268644017779</v>
-      </c>
-      <c r="G6" s="5">
+        <v>-0.26749069857845537</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3937552966026669</v>
-      </c>
-      <c r="H6" s="6">
+        <v>-0.40811400024863542</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" ref="H6:AL6" ca="1" si="5">VLOOKUP(G6,G4:BQ4,2,0)</f>
         <v>1.4324399999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>1.4562999999999999</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="K6" s="6" t="e">
+      <c r="K6" s="5">
         <f ca="1">VLOOKUP(J6,J4:BT4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="O6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="P6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="R6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="S6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="S6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="T6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="U6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="5">
         <f ca="1">VLOOKUP(AL6,AL4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="5">
         <f ca="1">VLOOKUP(AM6,AM4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="5">
         <f ca="1">VLOOKUP(AN6,AN4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="5">
         <f ca="1">VLOOKUP(AO6,AO4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="5">
         <f ca="1">VLOOKUP(AP6,AP4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="5">
         <f ca="1">VLOOKUP(AQ6,AQ4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5">
         <f ca="1">VLOOKUP(AR6,AR4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="5">
         <f ca="1">VLOOKUP(AS6,AS4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="5">
         <f ca="1">VLOOKUP(AT6,AT4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="5">
         <f ca="1">VLOOKUP(AU6,AU4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="5">
         <f ca="1">VLOOKUP(AV6,AV4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="5">
         <f ca="1">VLOOKUP(AW6,AW4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="5">
         <f ca="1">VLOOKUP(AX6,AX4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="AZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="5">
         <f ca="1">VLOOKUP(AY6,AY4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="5">
         <f ca="1">VLOOKUP(AZ6,AZ4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="5">
         <f ca="1">VLOOKUP(BA6,BA4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="5">
         <f ca="1">VLOOKUP(BB6,BB4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="5">
         <f ca="1">VLOOKUP(BC6,BC4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="5">
         <f ca="1">VLOOKUP(BD6,BD4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="5">
         <f ca="1">VLOOKUP(BE6,BE4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="5">
         <f ca="1">VLOOKUP(BF6,BF4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="5">
         <f ca="1">VLOOKUP(BG6,BG4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="5">
         <f ca="1">VLOOKUP(BH6,BH4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5">
         <f ca="1">VLOOKUP(BI6,BI4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="5">
         <f ca="1">VLOOKUP(BJ6,BJ4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5">
         <f ca="1">VLOOKUP(BK6,BK4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="5">
         <f ca="1">VLOOKUP(BL6,BL4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="5">
         <f ca="1">VLOOKUP(BM6,BM4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="5">
         <f ca="1">VLOOKUP(BN6,BN4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="5">
         <f ca="1">VLOOKUP(BO6,BO4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="5">
         <f ca="1">VLOOKUP(BP6,BP4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="5">
         <f ca="1">VLOOKUP(BQ6,BQ4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="5">
         <f ca="1">VLOOKUP(BR6,BR4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="5">
         <f ca="1">VLOOKUP(BS6,BS4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="5">
         <f ca="1">VLOOKUP(BT6,BT4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="5">
         <f ca="1">VLOOKUP(BU6,BU4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="5">
         <f ca="1">VLOOKUP(BV6,BV4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="5">
         <f ca="1">VLOOKUP(BW6,BW4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="5">
         <f ca="1">VLOOKUP(BX6,BX4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="BZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="5">
         <f ca="1">VLOOKUP(BY6,BY4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CA6" s="5">
         <f ca="1">VLOOKUP(BZ6,BZ4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="5">
         <f ca="1">VLOOKUP(CA6,CA4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="5">
         <f ca="1">VLOOKUP(CB6,CB4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="5">
         <f ca="1">VLOOKUP(CC6,CC4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CE6" s="5">
         <f ca="1">VLOOKUP(CD6,CD4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CF6" s="5">
         <f ca="1">VLOOKUP(CE6,CE4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="5">
         <f ca="1">VLOOKUP(CF6,CF4:CU4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="5">
         <f ca="1">VLOOKUP(CG6,CG4:CV4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CI6" s="5">
         <f ca="1">VLOOKUP(CH6,CH4:CV4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="5">
         <f ca="1">VLOOKUP(CI6,CI4:CV4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CK6" s="5">
         <f t="shared" ref="CK6:EA6" ca="1" si="6">VLOOKUP(CJ6,CJ4:CV4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="CL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CL6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CM6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CN6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CR6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CT6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CW6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CX6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CY6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="CZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DA6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DB6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DD6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DL6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DN6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DP6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="DZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EB6" s="5">
         <f ca="1">VLOOKUP(EA6,EA4:EL4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="EC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="5">
         <f t="shared" ref="EC6:FH6" ca="1" si="7">VLOOKUP(EB6,EB4:EL4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="ED6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EQ6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="ER6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="ES6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="ET6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EV6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EW6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EX6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EY6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="EZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="EZ6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FA6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FB6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FC6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FD6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FF6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FG6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FH6" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FI6" s="5">
         <f t="shared" ref="FI6:GN6" ca="1" si="8">VLOOKUP(FH6,FH4:FR4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="FJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FJ6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FK6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FM6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FN6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FO6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FP6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FQ6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FR6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FS6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FT6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FU6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FV6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FW6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FX6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FY6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="FZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="FZ6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GA6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GB6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GC6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GD6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GE6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GF6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GG6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GH6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GI6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GJ6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GK6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GL6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GM6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GN6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="5">
         <f t="shared" ref="GO6:HI6" ca="1" si="9">VLOOKUP(GN6,GN4:GX4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="GP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GV6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GW6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GX6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GY6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="GZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="GZ6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HA6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HB6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HC6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HD6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HE6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HF6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HG6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HH6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HI6" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HJ6" s="5">
         <f t="shared" ref="HJ6:HR6" ca="1" si="10">VLOOKUP(HI6,HI4:HR4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="HK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HK6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HL6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HM6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HN6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HO6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HP6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HQ6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HR6" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HS6" s="5">
         <f ca="1">VLOOKUP(HR6,HR4:HZ4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="HT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HT6" s="5">
         <f ca="1">VLOOKUP(HS6,HS4:HZ4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="HU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HU6" s="5">
         <f t="shared" ref="HU6:IW6" ca="1" si="11">VLOOKUP(HT6,HT4:IC4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="HV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HV6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HW6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HX6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HY6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="HZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="HZ6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IA6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IB6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IC6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="ID6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="ID6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IE6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IF6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IG6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IH6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="II6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="II6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IJ6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IK6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IL6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IM6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IN6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IN6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IO6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IO6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IP6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IP6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IQ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IQ6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IR6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IR6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IS6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IS6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IT6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IT6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IU6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IU6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IV6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IV6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IW6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IW6" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IX6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IX6" s="5">
         <f t="shared" ref="IX6:JF6" ca="1" si="12">VLOOKUP(IW6,IW4:JE4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="IY6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IY6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="IZ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="IZ6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JA6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JA6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JB6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JB6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JC6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JC6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JD6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JD6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JE6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JE6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JF6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JF6" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="JG6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JG6" s="5">
         <f ca="1">VLOOKUP(JF6,JF4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JH6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JH6" s="5">
         <f ca="1">VLOOKUP(JG6,JG4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JI6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JI6" s="5">
         <f ca="1">VLOOKUP(JH6,JH4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JJ6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JJ6" s="5">
         <f ca="1">VLOOKUP(JI6,JI4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JK6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JK6" s="5">
         <f ca="1">VLOOKUP(JJ6,JJ4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JL6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JL6" s="5">
         <f ca="1">VLOOKUP(JK6,JK4:JM4,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="JM6" s="6" t="e">
+        <v>0</v>
+      </c>
+      <c r="JM6" s="5">
         <f ca="1">VLOOKUP(JL6,JL4:JM4,2,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:12">
+      <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="26" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
     </row>
-    <row r="41" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8" t="s">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>1.5</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="9">
         <v>1.2</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <f>B42*B43</f>
         <v>1.7999999999999998</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>0.8</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <f>B42*B44</f>
         <v>1.2000000000000002</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5416,7 +7358,7 @@
                   </from>
                   <to>
                     <xdr:col>12</xdr:col>
-                    <xdr:colOff>495300</xdr:colOff>
+                    <xdr:colOff>400050</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>85725</xdr:rowOff>
                   </to>

--- a/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
+++ b/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F017AC97-C796-43DB-8CB8-DA389F53EEE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53369D6C-0DA6-43F3-AA28-F634C99CD7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -209,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Chemical Name</t>
   </si>
@@ -337,28 +339,13 @@
     <t>补充说明</t>
   </si>
   <si>
-    <t>1.B列与结果中的单号名称要一致,包括大小写</t>
-  </si>
-  <si>
     <t>如：Paint,0.1,25和M BS</t>
-  </si>
-  <si>
-    <t>2.C列为该单号的元素测试</t>
   </si>
   <si>
     <t>如：M BS中的Pb元素的数值</t>
   </si>
   <si>
-    <t>3.B列中Date填的是日期</t>
-  </si>
-  <si>
     <t>注意：由于CC每天可以测试多个，而质控每天只要一个，镍释放并不是每天都有，所以这些日期是不一样的</t>
-  </si>
-  <si>
-    <t>4.C列与B列Date通行的与B列其中一个单号一致</t>
-  </si>
-  <si>
-    <t>由于上述原因，当C列Date行为M BS时，填写的是M BS的日期；如果C列Date行为CC,那填写的是CC的日期</t>
   </si>
   <si>
     <t>5.所有有质量或者稀释的测试都用逗号隔开</t>
@@ -391,7 +378,26 @@
     <t>4.某天一次</t>
   </si>
   <si>
-    <t>如:ECO中Pb，由于与镍释放不一定一样，B列需要添加两行Date和ECO，C列添加ECO和Pb，同样引用</t>
+    <t>1.Materail列与结果中的单号名称要一致,包括大小写</t>
+  </si>
+  <si>
+    <t>2.Element列为该单号的元素测试</t>
+  </si>
+  <si>
+    <t>3.Materail列中Date填的是日期</t>
+  </si>
+  <si>
+    <t>4.Element列与Materail列Date通行的与Materail列其中一个单号一致</t>
+  </si>
+  <si>
+    <t>由于上述原因，当Element列Date行为M BS时，填写的是M BS的日期；如果Element列Date行为CC,那填写的是CC的日期</t>
+  </si>
+  <si>
+    <t>如:ECO中Pb，由于与镍释放不一定一样，Materail列需要添加两行Date和ECO，Element列添加ECO和Pb，同样引用</t>
+  </si>
+  <si>
+    <t>6.第一行名称不能变，也不能重复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,15 +405,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -440,7 +446,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,7 +521,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -777,7 +783,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -792,7 +798,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,15 +826,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -865,14 +880,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3447,23 +3471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7CE55A-FDC8-4D55-AD53-F7FE43BB9557}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B7" sqref="B7:Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="11.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="16" customWidth="1"/>
     <col min="3" max="3" width="16" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" style="16" customWidth="1"/>
     <col min="5" max="5" width="12" style="16" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="19" customFormat="1" ht="15.75">
+    <row r="1" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
@@ -3480,7 +3504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="19" customFormat="1" ht="15.75">
+    <row r="2" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3497,7 +3521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="19" customFormat="1" ht="15.75">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3514,258 +3538,291 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="B8" s="39" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="B9" s="39" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
     </row>
-    <row r="10" spans="1:16">
-      <c r="B10" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="39" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
     </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="39" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
     </row>
-    <row r="13" spans="1:16">
-      <c r="B13" s="38" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39" t="s">
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:P17"/>
-    <mergeCell ref="B13:P13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:P14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:P15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:P16"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:P10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:P11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:P12"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:P7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:P9"/>
+  <mergeCells count="23">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:Q18"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:Q15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:Q16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:Q17"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:Q10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3781,42 +3838,42 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.28515625" customWidth="1"/>
-    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="9.140625" customWidth="1"/>
-    <col min="55" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" customWidth="1"/>
-    <col min="68" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="9.140625" customWidth="1"/>
-    <col min="74" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.140625" customWidth="1"/>
-    <col min="81" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="90" max="95" width="9.140625" customWidth="1"/>
-    <col min="96" max="108" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.140625" customWidth="1"/>
-    <col min="110" max="123" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.140625" customWidth="1"/>
-    <col min="125" max="165" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.140625" customWidth="1"/>
-    <col min="167" max="273" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" customWidth="1"/>
+    <col min="10" max="48" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.265625" customWidth="1"/>
+    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="9.1328125" customWidth="1"/>
+    <col min="55" max="66" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.1328125" customWidth="1"/>
+    <col min="68" max="71" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="9.1328125" customWidth="1"/>
+    <col min="74" max="79" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.1328125" customWidth="1"/>
+    <col min="81" max="89" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="9.1328125" customWidth="1"/>
+    <col min="96" max="108" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.1328125" customWidth="1"/>
+    <col min="110" max="123" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.1328125" customWidth="1"/>
+    <col min="125" max="165" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.1328125" customWidth="1"/>
+    <col min="167" max="273" width="10.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" s="30" customFormat="1" ht="120" customHeight="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:273" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:273" s="15" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="1:273" s="15" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:273" s="24" customFormat="1" ht="16.5" thickBot="1">
+    <row r="3" spans="1:273" s="24" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -4901,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:273" ht="15.75">
+    <row r="4" spans="1:273" ht="15.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -5992,12 +6049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:273" ht="15.75" thickBot="1">
+    <row r="5" spans="1:273" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:273" ht="16.5" thickBot="1">
+    <row r="6" spans="1:273" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>HCHO</v>
@@ -7091,53 +7148,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="34"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="39"/>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="29"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -7153,7 +7210,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
@@ -7169,104 +7226,104 @@
       <c r="K34" s="12"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="25" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="25" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="26" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1">
+    <row r="41" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -7277,7 +7334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1">
+    <row r="43" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -7292,7 +7349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1">
+    <row r="44" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>

--- a/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
+++ b/z/data/model/QC_Chart_HCHO_66_01_2016_051_CARY60.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53369D6C-0DA6-43F3-AA28-F634C99CD7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF06437B-DCA3-4A96-965A-1BE41AA1BC80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2415" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -16,9 +16,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -317,9 +315,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>material</t>
-  </si>
-  <si>
     <t>Formal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -399,21 +394,24 @@
     <t>6.第一行名称不能变，也不能重复</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Material</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -446,7 +444,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -521,7 +519,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -798,7 +796,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,19 +824,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,24 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3474,45 +3472,45 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Q18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="11.86328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="16" customWidth="1"/>
     <col min="3" max="3" width="16" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="16" customWidth="1"/>
     <col min="5" max="5" width="12" style="16" customWidth="1"/>
     <col min="6" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="19" customFormat="1" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="19" customFormat="1" ht="15.75">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>8</v>
@@ -3521,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="15.75">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="18">
         <v>1.35</v>
@@ -3538,268 +3536,280 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+    <row r="7" spans="1:17">
+      <c r="B7" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="25" t="s">
+    <row r="9" spans="1:17">
+      <c r="B9" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:17">
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="1:17">
+      <c r="B11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25" t="s">
+    <row r="13" spans="1:17">
+      <c r="B13" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:Q10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:Q11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:Q12"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:Q9"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:Q13"/>
     <mergeCell ref="B14:Q14"/>
@@ -3811,18 +3821,6 @@
     <mergeCell ref="F16:Q16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:Q17"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:Q9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:Q10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:Q11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:Q12"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3838,42 +3836,42 @@
       <selection pane="topRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" customWidth="1"/>
-    <col min="10" max="48" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.265625" customWidth="1"/>
-    <col min="50" max="50" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="54" width="9.1328125" customWidth="1"/>
-    <col min="55" max="66" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.1328125" customWidth="1"/>
-    <col min="68" max="71" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="9.1328125" customWidth="1"/>
-    <col min="74" max="79" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.1328125" customWidth="1"/>
-    <col min="81" max="89" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="90" max="95" width="9.1328125" customWidth="1"/>
-    <col min="96" max="108" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="9.1328125" customWidth="1"/>
-    <col min="110" max="123" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="9.1328125" customWidth="1"/>
-    <col min="125" max="165" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="9.1328125" customWidth="1"/>
-    <col min="167" max="273" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.28515625" customWidth="1"/>
+    <col min="50" max="50" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="54" width="9.140625" customWidth="1"/>
+    <col min="55" max="66" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.140625" customWidth="1"/>
+    <col min="68" max="71" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="9.140625" customWidth="1"/>
+    <col min="74" max="79" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.140625" customWidth="1"/>
+    <col min="81" max="89" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="90" max="95" width="9.140625" customWidth="1"/>
+    <col min="96" max="108" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="9.140625" customWidth="1"/>
+    <col min="110" max="123" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="9.140625" customWidth="1"/>
+    <col min="125" max="165" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="9.140625" customWidth="1"/>
+    <col min="167" max="273" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:273" s="33" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:273" s="39" customFormat="1" ht="120" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:273" s="15" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:273" s="15" customFormat="1" ht="16.5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:273" s="24" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:273" s="24" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:273" ht="15.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:273" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -6049,12 +6047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:273" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:273" ht="15.75" thickBot="1">
       <c r="A5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:273" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:273" ht="16.5" thickBot="1">
       <c r="A6" s="4" t="str">
         <f ca="1">OFFSET(A3,A5,0,1,1)</f>
         <v>HCHO</v>
@@ -7148,53 +7146,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
+    <row r="30" spans="1:12">
+      <c r="A30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="42"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="45"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:12">
+      <c r="A32" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="11" t="s">
         <v>16</v>
       </c>
@@ -7210,7 +7208,7 @@
       <c r="K33" s="12"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
@@ -7226,104 +7224,104 @@
       <c r="K34" s="12"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:12">
+      <c r="A35" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:12">
+      <c r="A36" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="38"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+    <row r="38" spans="1:12">
+      <c r="A38" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="28" t="s">
+    <row r="39" spans="1:12">
+      <c r="A39" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
+    <row r="40" spans="1:12">
+      <c r="A40" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
     </row>
-    <row r="41" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>9</v>
       </c>
@@ -7334,7 +7332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>11</v>
       </c>
@@ -7349,7 +7347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1">
       <c r="A44" s="7" t="s">
         <v>12</v>
       </c>
